--- a/MM1-Software 10-01-2025/MM1-Software/build2/workbook.xlsx
+++ b/MM1-Software 10-01-2025/MM1-Software/build2/workbook.xlsx
@@ -1,93 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Test_Sheet" r:id="rId3" sheetId="1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Test_Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>Confidence Metrics</t>
-  </si>
-  <si>
-    <t>Mod. Lambda</t>
-  </si>
-  <si>
-    <t>Mes. Lambda</t>
-  </si>
-  <si>
-    <t>Mes. MST</t>
-  </si>
-  <si>
-    <t>Mes. MSR</t>
-  </si>
-  <si>
-    <t>Mod. MRT</t>
-  </si>
-  <si>
-    <t>MRT=k/lambda</t>
-  </si>
-  <si>
-    <t>Mes. MRT</t>
-  </si>
-  <si>
-    <t>Mod. Power</t>
-  </si>
-  <si>
-    <t>Mes. Power</t>
-  </si>
-  <si>
-    <t>Mod. U</t>
-  </si>
-  <si>
-    <t>1-Pi_0</t>
-  </si>
-  <si>
-    <t>Mes. U</t>
-  </si>
-  <si>
-    <t>Avg. Freq</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Mes MCpuTime</t>
-  </si>
-  <si>
-    <t>Mes frequency</t>
-  </si>
-  <si>
-    <t>Mes Average Power</t>
-  </si>
-  <si>
-    <t>Mes Total Power</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
-      <sz val="11.0"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
@@ -103,114 +49,512 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Confidence Metrics</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mod. Lambda</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Mes. Lambda</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Mes. MST</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Mes. MSR</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Mod. MRT</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>MRT=k/lambda</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Mes. MRT</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Mod. Power</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Mes. Power</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Mod. U</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>1-Pi_0</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Mes. U</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Avg. Freq</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>State</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Mes MCpuTime</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Mes frequency</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Mes Average Power</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Mes Total Power</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="B2" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0033333333333333335</v>
+        <v>0.003333333333333334</v>
       </c>
       <c r="D2" t="n">
         <v>88.860517</v>
       </c>
       <c r="E2" t="n">
-        <v>11.253591963683938</v>
+        <v>11.25359196368394</v>
       </c>
       <c r="F2" t="n">
         <v>88.88684543680004</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>93.913748</v>
       </c>
       <c r="I2" t="n">
-        <v>106.29325525693945</v>
+        <v>106.2932552569394</v>
       </c>
       <c r="K2" t="n">
-        <v>0.029620172333333333</v>
+        <v>0.02962017233333333</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>88.769831</v>
@@ -218,10 +562,10 @@
     </row>
     <row r="3">
       <c r="B3" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0033333333333333335</v>
+        <v>0.003333333333333334</v>
       </c>
       <c r="D3" t="n">
         <v>106.613833</v>
@@ -230,25 +574,25 @@
         <v>9.379645885163889</v>
       </c>
       <c r="F3" t="n">
-        <v>106.65173483415587</v>
+        <v>106.6517348341559</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>111.731363</v>
       </c>
       <c r="I3" t="n">
-        <v>106.29390562008224</v>
+        <v>106.2939056200822</v>
       </c>
       <c r="K3" t="n">
-        <v>0.035537944333333335</v>
+        <v>0.03553794433333334</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>106.572728</v>
@@ -256,7 +600,7 @@
     </row>
     <row r="4">
       <c r="B4" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>0.035</v>
@@ -268,16 +612,16 @@
         <v>5.162035920388295</v>
       </c>
       <c r="F4" t="n">
-        <v>195.04446926602873</v>
+        <v>195.0444692660287</v>
       </c>
       <c r="G4" t="n">
-        <v>11960.132890365447</v>
+        <v>11960.13289036545</v>
       </c>
       <c r="H4" t="n">
         <v>253.266034</v>
       </c>
       <c r="I4" t="n">
-        <v>106.36451517306976</v>
+        <v>106.3645151730698</v>
       </c>
       <c r="K4" t="n">
         <v>0.6780270525000001</v>
@@ -286,7 +630,7 @@
         <v>23.25581395348837</v>
       </c>
       <c r="O4" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P4" t="n">
         <v>193.627566</v>
@@ -294,10 +638,10 @@
     </row>
     <row r="5">
       <c r="B5" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>0.041666666666666664</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="D5" t="n">
         <v>206.561943</v>
@@ -306,16 +650,16 @@
         <v>4.841162827365542</v>
       </c>
       <c r="F5" t="n">
-        <v>208.35520365420726</v>
+        <v>208.3552036542073</v>
       </c>
       <c r="G5" t="n">
-        <v>11764.705882352942</v>
+        <v>11764.70588235294</v>
       </c>
       <c r="H5" t="n">
         <v>260.314536</v>
       </c>
       <c r="I5" t="n">
-        <v>106.38458815639875</v>
+        <v>106.3845881563987</v>
       </c>
       <c r="K5" t="n">
         <v>0.8606747625</v>
@@ -324,7 +668,7 @@
         <v>41.17647058823529</v>
       </c>
       <c r="O5" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
         <v>206.475506</v>
@@ -332,37 +676,37 @@
     </row>
     <row r="6">
       <c r="B6" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>0.041666666666666664</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="D6" t="n">
         <v>199.462308</v>
       </c>
       <c r="E6" t="n">
-        <v>5.0134785365062555</v>
+        <v>5.013478536506256</v>
       </c>
       <c r="F6" t="n">
         <v>201.1339178109859</v>
       </c>
       <c r="G6" t="n">
-        <v>15529.411764705881</v>
+        <v>15529.41176470588</v>
       </c>
       <c r="H6" t="n">
         <v>302.06271</v>
       </c>
       <c r="I6" t="n">
-        <v>106.38133711520501</v>
+        <v>106.381337115205</v>
       </c>
       <c r="K6" t="n">
         <v>0.8310929499999999</v>
       </c>
       <c r="L6" t="n">
-        <v>37.254901960784316</v>
+        <v>37.25490196078432</v>
       </c>
       <c r="O6" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P6" t="n">
         <v>199.364475</v>
@@ -370,7 +714,7 @@
     </row>
     <row r="7">
       <c r="B7" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>0.03833333333333333</v>
@@ -382,25 +726,25 @@
         <v>4.89387974140113</v>
       </c>
       <c r="F7" t="n">
-        <v>205.95004474438488</v>
+        <v>205.9500447443849</v>
       </c>
       <c r="G7" t="n">
-        <v>15541.165587419056</v>
+        <v>15541.16558741906</v>
       </c>
       <c r="H7" t="n">
         <v>292.848448</v>
       </c>
       <c r="I7" t="n">
-        <v>106.37608371181854</v>
+        <v>106.3760837118185</v>
       </c>
       <c r="K7" t="n">
         <v>0.7832912813333334</v>
       </c>
       <c r="L7" t="n">
-        <v>38.297872340425535</v>
+        <v>38.29787234042553</v>
       </c>
       <c r="O7" t="n">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P7" t="n">
         <v>204.255599</v>
@@ -408,43 +752,63 @@
     </row>
     <row r="8">
       <c r="B8" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0.011666666666666667</v>
+        <v>0.01166666666666667</v>
       </c>
       <c r="D8" t="n">
         <v>182.51179</v>
       </c>
       <c r="E8" t="n">
-        <v>5.4790980900466755</v>
+        <v>5.479098090046675</v>
       </c>
       <c r="F8" t="n">
-        <v>182.90124238664748</v>
+        <v>182.9012423866475</v>
       </c>
       <c r="G8" t="n">
-        <v>42857.142857142855</v>
+        <v>42857.14285714286</v>
       </c>
       <c r="H8" t="n">
         <v>263.291881</v>
       </c>
       <c r="I8" t="n">
-        <v>106.31340105334117</v>
+        <v>106.3134010533412</v>
       </c>
       <c r="K8" t="n">
         <v>0.2129304216666667</v>
       </c>
       <c r="L8" t="n">
-        <v>50.0</v>
+        <v>50</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>11.79</t>
+        </is>
       </c>
       <c r="O8" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
         <v>182.396531</v>
       </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>2.66868055555555555555</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>384.29</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>